--- a/work.xlsx
+++ b/work.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>日期</t>
   </si>
@@ -85,13 +85,13 @@
     <t>第一季度预调休</t>
   </si>
   <si>
-    <t>3月排班工时</t>
-  </si>
-  <si>
-    <t>1、2月工时合计</t>
-  </si>
-  <si>
-    <t>第一季度工时</t>
+    <t>G11中和</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>第二季度预调休</t>
   </si>
 </sst>
 </file>
@@ -101,18 +101,11 @@
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,48 +561,51 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -619,103 +615,100 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1067,10 +1060,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="$A33:$XFD35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1485,37 +1478,207 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="33" customFormat="1" spans="1:2">
-      <c r="A33" s="2" t="s">
+    <row r="33" customFormat="1" spans="1:4">
+      <c r="A33" s="1">
+        <v>45017</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="2">
-        <v>163.17</v>
-      </c>
-    </row>
-    <row r="34" customFormat="1" spans="1:2">
-      <c r="A34" s="2" t="s">
+      <c r="D33" s="2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" spans="1:4">
+      <c r="A34" s="1">
+        <v>45018</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="2">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:4">
+      <c r="A35" s="1">
+        <v>45019</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>45020</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="2">
-        <v>223.44</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" spans="1:2">
-      <c r="A35" s="2" t="s">
+      <c r="D36" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>45021</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>45022</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="2">
-        <v>386.61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>45023</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>45024</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>45025</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>45026</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>45027</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>45028</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>45029</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="2">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>45030</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>45031</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>45032</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="2">
+        <v>8.17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/work.xlsx
+++ b/work.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="28">
   <si>
     <t>日期</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>第二季度预调休</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>G中和</t>
   </si>
 </sst>
 </file>
@@ -101,9 +107,9 @@
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -573,16 +579,16 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -708,10 +714,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1060,624 +1066,756 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="6" customWidth="1"/>
+    <col min="2" max="2" width="10" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>44986</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
+    <row r="3" spans="1:2">
+      <c r="A3" s="2">
         <v>44987</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>44988</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>4.5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>44989</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>11.83</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
+    <row r="6" spans="1:2">
+      <c r="A6" s="2">
         <v>44990</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
         <v>44991</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>44992</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>44993</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
+    <row r="10" spans="1:2">
+      <c r="A10" s="2">
         <v>44994</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>44995</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>8.17</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>44996</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>11.83</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
+    <row r="13" spans="1:2">
+      <c r="A13" s="2">
         <v>44997</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
         <v>44998</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>44999</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>45000</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
+    <row r="17" spans="1:2">
+      <c r="A17" s="2">
         <v>45001</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>45002</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>8.17</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>45003</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <v>11.83</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1">
+    <row r="20" spans="1:2">
+      <c r="A20" s="2">
         <v>45004</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>45005</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>45006</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>45007</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1">
+    <row r="24" spans="1:2">
+      <c r="A24" s="2">
         <v>45008</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>45009</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>8.17</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>45010</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>8.17</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1">
+    <row r="27" spans="1:2">
+      <c r="A27" s="2">
         <v>45011</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1">
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
         <v>45012</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1">
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
         <v>45013</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>45014</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1">
+    <row r="31" spans="1:2">
+      <c r="A31" s="2">
         <v>45015</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>45016</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="1">
         <v>4.5</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="1:4">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>45017</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="1">
         <v>7.5</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:4">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>45018</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="1">
         <v>8.17</v>
       </c>
     </row>
     <row r="35" customFormat="1" spans="1:4">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>45019</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>45020</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1">
+    <row r="37" spans="1:2">
+      <c r="A37" s="2">
         <v>45021</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1">
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
         <v>45022</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="1">
+      <c r="A39" s="2">
         <v>45023</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="1">
+    <row r="40" spans="1:2">
+      <c r="A40" s="2">
         <v>45024</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="1">
+      <c r="A41" s="2">
         <v>45025</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="1">
+      <c r="A42" s="2">
         <v>45026</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="1">
         <v>4.5</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="1">
+    <row r="43" spans="1:2">
+      <c r="A43" s="2">
         <v>45027</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="1">
+      <c r="A44" s="2">
         <v>45028</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="2">
+      <c r="D44" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="1">
+      <c r="A45" s="2">
         <v>45029</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="1">
         <v>8.17</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="1">
+    <row r="46" spans="1:2">
+      <c r="A46" s="2">
         <v>45030</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="1">
+      <c r="A47" s="2">
         <v>45031</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="1">
+      <c r="A48" s="2">
         <v>45032</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="1">
         <v>8.17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2">
+        <v>45033</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="2">
+        <v>45034</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="2">
+        <v>45035</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="2">
+        <v>45036</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D52" s="1">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="2">
+        <v>45037</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="2">
+        <v>45038</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="2">
+        <v>45039</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="2">
+        <v>45040</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="1">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="2">
+        <v>45041</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="1">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="2">
+        <v>45042</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="2">
+        <v>45043</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="2">
+        <v>45044</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2">
+        <v>45045</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2">
+        <v>45046</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/work.xlsx
+++ b/work.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t>G中和</t>
+  </si>
+  <si>
+    <t>年休5.1-5</t>
+  </si>
+  <si>
+    <t>年休调休</t>
   </si>
 </sst>
 </file>
@@ -107,11 +113,18 @@
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -570,46 +583,43 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,103 +631,112 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1066,10 +1085,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1818,6 +1837,180 @@
         <v>13</v>
       </c>
     </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="3">
+        <v>45047</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D63" s="4"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="3">
+        <v>45048</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="3">
+        <v>45049</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="3">
+        <v>45050</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="3">
+        <v>45051</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="3">
+        <v>45052</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="3">
+        <v>45053</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="4"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="3">
+        <v>45054</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D70" s="4"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="3">
+        <v>45055</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="4">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="3">
+        <v>45056</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="3">
+        <v>45057</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="3">
+        <v>45058</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" s="4">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="3">
+        <v>45059</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="4">
+        <v>11.83</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="3">
+        <v>45060</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="3">
+        <v>45061</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/work.xlsx
+++ b/work.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="34">
   <si>
     <t>日期</t>
   </si>
@@ -104,6 +104,18 @@
   </si>
   <si>
     <t>年休调休</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>领证</t>
+  </si>
+  <si>
+    <t>F1</t>
   </si>
 </sst>
 </file>
@@ -113,9 +125,9 @@
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -592,7 +604,7 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -601,7 +613,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -725,15 +737,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1085,10 +1103,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2011,6 +2029,212 @@
       </c>
       <c r="D77" s="4"/>
     </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="5">
+        <v>45062</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D78" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="5">
+        <v>45063</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="5">
+        <v>45064</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D80" s="6">
+        <v>11.83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="5">
+        <v>45065</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D81" s="6"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="5">
+        <v>45066</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" s="6">
+        <v>11.83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="5">
+        <v>45067</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="5">
+        <v>45068</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" s="6"/>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="5">
+        <v>45069</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" s="6">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="5">
+        <v>45070</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="5">
+        <v>45071</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="5">
+        <v>45072</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" s="6">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="5">
+        <v>45073</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D89" s="6"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="5">
+        <v>45074</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="5">
+        <v>45075</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D91" s="6">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="5">
+        <v>45076</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92" s="6">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="5">
+        <v>45077</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" s="6">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/work.xlsx
+++ b/work.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="36">
   <si>
     <t>日期</t>
   </si>
@@ -83,6 +83,45 @@
   </si>
   <si>
     <t>F1</t>
+  </si>
+  <si>
+    <t>G中和</t>
+  </si>
+  <si>
+    <t>G张家寺</t>
+  </si>
+  <si>
+    <t>G新通大道</t>
+  </si>
+  <si>
+    <t>G龙灯山</t>
+  </si>
+  <si>
+    <t>跟中和C1</t>
+  </si>
+  <si>
+    <t>跟观东C1</t>
+  </si>
+  <si>
+    <t>换班备注</t>
+  </si>
+  <si>
+    <t>休假备注（4-6）</t>
+  </si>
+  <si>
+    <t>年休5</t>
+  </si>
+  <si>
+    <t>6月排班工时</t>
+  </si>
+  <si>
+    <t>4月考勤工时</t>
+  </si>
+  <si>
+    <t>5月工时</t>
+  </si>
+  <si>
+    <t>2023年第二季度工时</t>
   </si>
 </sst>
 </file>
@@ -92,11 +131,18 @@
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -555,46 +601,43 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -606,111 +649,121 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1057,10 +1110,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1465,6 +1518,266 @@
         <v>11</v>
       </c>
     </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="5">
+        <v>45078</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="5">
+        <v>45079</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="5">
+        <v>45080</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="5">
+        <v>45081</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="5">
+        <v>45082</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="5">
+        <v>45083</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="6">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="5">
+        <v>45084</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="5">
+        <v>45085</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="5">
+        <v>45086</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="5">
+        <v>45087</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="5">
+        <v>45088</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="5">
+        <v>45089</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="5">
+        <v>45090</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="5">
+        <v>45091</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="5">
+        <v>45092</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" s="6">
+        <f>SUM(F80:T80)</f>
+        <v>0</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B51" s="6">
+        <v>139.34</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52" s="6">
+        <v>131.35</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" s="6">
+        <v>142.33</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="6">
+        <f>Z79+Y79+X79</f>
+        <v>0</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/work.xlsx
+++ b/work.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12420"/>
+    <workbookView windowWidth="15900" windowHeight="6900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="34">
   <si>
     <t>日期</t>
   </si>
@@ -103,25 +103,19 @@
     <t>跟观东C1</t>
   </si>
   <si>
-    <t>换班备注</t>
-  </si>
-  <si>
-    <t>休假备注（4-6）</t>
-  </si>
-  <si>
-    <t>年休5</t>
-  </si>
-  <si>
-    <t>6月排班工时</t>
-  </si>
-  <si>
-    <t>4月考勤工时</t>
-  </si>
-  <si>
-    <t>5月工时</t>
-  </si>
-  <si>
-    <t>2023年第二季度工时</t>
+    <t>跟陆肖F1+评估（延时50分钟）</t>
+  </si>
+  <si>
+    <t>G中和（延时50分钟）</t>
+  </si>
+  <si>
+    <t>P7（班）</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>G6</t>
   </si>
 </sst>
 </file>
@@ -129,11 +123,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -598,7 +592,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -607,19 +601,19 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -743,27 +737,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1110,17 +1103,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.75" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.3636363636364" style="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1519,264 +1512,382 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="5">
+      <c r="A33" s="3">
         <v>45078</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="5">
+      <c r="A34" s="3">
         <v>45079</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="4">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="5">
+      <c r="A35" s="3">
         <v>45080</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="6"/>
+      <c r="D35" s="4"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="5">
+      <c r="A36" s="3">
         <v>45081</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="5">
+      <c r="A37" s="3">
         <v>45082</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="4">
         <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="5">
+      <c r="A38" s="3">
         <v>45083</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="4">
         <v>8.17</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="5">
+      <c r="A39" s="3">
         <v>45084</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="4">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="5">
+      <c r="A40" s="3">
         <v>45085</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="4">
         <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="5">
+      <c r="A41" s="3">
         <v>45086</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="4">
         <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="5">
+      <c r="A42" s="3">
         <v>45087</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="5">
+      <c r="A43" s="3">
         <v>45088</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="5">
+      <c r="A44" s="3">
         <v>45089</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="6"/>
+      <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="5">
+      <c r="A45" s="3">
         <v>45090</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="4">
         <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="5">
+      <c r="A46" s="3">
         <v>45091</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="4">
         <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="5">
+      <c r="A47" s="3">
         <v>45092</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="4">
         <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="5">
+        <v>45093</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="5">
+        <v>45094</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="5">
+        <v>45095</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="5">
+        <v>45096</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="6"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="5">
+        <v>45097</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="5">
+        <v>45098</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="6" t="s">
+      <c r="D53" s="6">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="5">
+        <v>45099</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="5">
+        <v>45100</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="5">
+        <v>45101</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="D56" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="5">
+        <v>45102</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="6" t="s">
+      <c r="D57" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="5">
+        <v>45103</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="5">
+        <v>45104</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B50" s="6">
-        <f>SUM(F80:T80)</f>
-        <v>0</v>
-      </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B51" s="6">
-        <v>139.34</v>
-      </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="6" t="s">
+      <c r="D59" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="5">
+        <v>45105</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="6">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="5">
+        <v>45106</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="6">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="5">
+        <v>45107</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B52" s="6">
-        <v>131.35</v>
-      </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B53" s="6">
-        <v>142.33</v>
-      </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B54" s="6">
-        <f>Z79+Y79+X79</f>
-        <v>0</v>
-      </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
+      <c r="D62" s="6">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/work.xlsx
+++ b/work.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>日期</t>
   </si>
@@ -28,94 +28,40 @@
     <t>工时</t>
   </si>
   <si>
+    <t>星期日</t>
+  </si>
+  <si>
+    <t>中和F1</t>
+  </si>
+  <si>
     <t>星期一</t>
   </si>
   <si>
-    <t>年休5.1-5</t>
+    <t>第三季度预调休</t>
   </si>
   <si>
     <t>星期二</t>
   </si>
   <si>
+    <t>G6</t>
+  </si>
+  <si>
     <t>星期三</t>
   </si>
   <si>
     <t>星期四</t>
   </si>
   <si>
+    <t>G8</t>
+  </si>
+  <si>
     <t>星期五</t>
   </si>
   <si>
     <t>星期六</t>
   </si>
   <si>
-    <t>星期日</t>
-  </si>
-  <si>
-    <t>备</t>
-  </si>
-  <si>
-    <t>年休调休</t>
-  </si>
-  <si>
-    <t>中和D1</t>
-  </si>
-  <si>
-    <t>中和D2</t>
-  </si>
-  <si>
-    <t>中和F1</t>
-  </si>
-  <si>
-    <t>中和F2</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>第二季度预调休</t>
-  </si>
-  <si>
-    <t>领证</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>G中和</t>
-  </si>
-  <si>
-    <t>G张家寺</t>
-  </si>
-  <si>
-    <t>G新通大道</t>
-  </si>
-  <si>
-    <t>G龙灯山</t>
-  </si>
-  <si>
-    <t>跟中和C1</t>
-  </si>
-  <si>
-    <t>跟观东C1</t>
-  </si>
-  <si>
-    <t>跟陆肖F1+评估（延时50分钟）</t>
-  </si>
-  <si>
-    <t>G中和（延时50分钟）</t>
-  </si>
-  <si>
-    <t>P7（班）</t>
-  </si>
-  <si>
-    <t>G7</t>
-  </si>
-  <si>
-    <t>G6</t>
+    <t>G9</t>
   </si>
 </sst>
 </file>
@@ -129,14 +75,7 @@
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -595,10 +534,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -607,33 +546,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -643,101 +585,98 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -751,12 +690,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1103,10 +1037,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.75" outlineLevelCol="3"/>
@@ -1133,7 +1067,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3">
-        <v>45047</v>
+        <v>45123</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
@@ -1141,753 +1075,207 @@
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="4">
+        <v>8.17</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3">
-        <v>45048</v>
+        <v>45124</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3">
-        <v>45049</v>
+        <v>45125</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3">
-        <v>45050</v>
+        <v>45126</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3">
-        <v>45051</v>
+        <v>45127</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3">
-        <v>45052</v>
+        <v>45128</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3">
-        <v>45053</v>
+        <v>45129</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3">
-        <v>45054</v>
+        <v>45130</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3">
-        <v>45055</v>
+        <v>45131</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D10" s="4">
-        <v>8.17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3">
-        <v>45056</v>
+        <v>45132</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="4">
-        <v>11</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3">
-        <v>45057</v>
+        <v>45133</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="4">
         <v>8</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3">
-        <v>45058</v>
+        <v>45134</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="4">
-        <v>8.17</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="3">
-        <v>45059</v>
+        <v>45135</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D14" s="4">
-        <v>11.83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3">
-        <v>45060</v>
+        <v>45136</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3">
-        <v>45061</v>
+        <v>45137</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="D16" s="4">
+        <v>10.5</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3">
-        <v>45062</v>
+        <v>45138</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="4">
-        <v>7</v>
-      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="3">
-        <v>45063</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="4">
-        <v>11</v>
-      </c>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="3">
-        <v>45064</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="4">
-        <v>11.83</v>
-      </c>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="3">
-        <v>45065</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3">
-        <v>45066</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="4">
-        <v>11.83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="3">
-        <v>45067</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="3">
-        <v>45068</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="3">
-        <v>45069</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="4">
-        <v>8.17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="3">
-        <v>45070</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="3">
-        <v>45071</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="3">
-        <v>45072</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="4">
-        <v>8.17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="3">
-        <v>45073</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="3">
-        <v>45074</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="3">
-        <v>45075</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="4">
-        <v>8.17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="3">
-        <v>45076</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="4">
-        <v>8.17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="3">
-        <v>45077</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="3">
-        <v>45078</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="3">
-        <v>45079</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="3">
-        <v>45080</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="3">
-        <v>45081</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="3">
-        <v>45082</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="3">
-        <v>45083</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D38" s="4">
-        <v>8.17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="3">
-        <v>45084</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="3">
-        <v>45085</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="3">
-        <v>45086</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="3">
-        <v>45087</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="3">
-        <v>45088</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="3">
-        <v>45089</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="3">
-        <v>45090</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D45" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="3">
-        <v>45091</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D46" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="3">
-        <v>45092</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D47" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="5">
-        <v>45093</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D48" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="5">
-        <v>45094</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="5">
-        <v>45095</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="5">
-        <v>45096</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D51" s="6"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="5">
-        <v>45097</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D52" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="5">
-        <v>45098</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D53" s="6">
-        <v>8.17</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="5">
-        <v>45099</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="5">
-        <v>45100</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="5">
-        <v>45101</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D56" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="5">
-        <v>45102</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D57" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="5">
-        <v>45103</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="5">
-        <v>45104</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D59" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="5">
-        <v>45105</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" s="6">
-        <v>8.17</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="5">
-        <v>45106</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61" s="6">
-        <v>8.17</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="5">
-        <v>45107</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D62" s="6">
-        <v>8</v>
-      </c>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/work.xlsx
+++ b/work.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15900" windowHeight="6900"/>
+    <workbookView windowWidth="15735" windowHeight="6840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="21">
   <si>
     <t>日期</t>
   </si>
@@ -62,17 +62,32 @@
   </si>
   <si>
     <t>G9</t>
+  </si>
+  <si>
+    <t>G11（早）09:30-15:30</t>
+  </si>
+  <si>
+    <t>G13</t>
+  </si>
+  <si>
+    <t>G11（早）09:30-13:30</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>中和D2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="20">
@@ -84,55 +99,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -177,6 +156,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -222,7 +216,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,49 +252,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,121 +390,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,21 +443,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -475,6 +475,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,148 +546,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -694,52 +709,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1037,10 +1052,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.75" outlineLevelCol="3"/>
@@ -1260,22 +1275,177 @@
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="A18" s="3">
+        <v>45139</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="5">
+        <v>6</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
+      <c r="A19" s="3">
+        <v>45140</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="A20" s="3">
+        <v>45141</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="5">
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3">
+        <v>45142</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3">
+        <v>45143</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="1">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="3">
+        <v>45144</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3">
+        <v>45145</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3">
+        <v>45146</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3">
+        <v>45147</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3">
+        <v>45148</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="3">
+        <v>45149</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="3">
+        <v>45150</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="3">
+        <v>45151</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3">
+        <v>45152</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3">
+        <v>45153</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/work.xlsx
+++ b/work.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -77,6 +77,33 @@
   </si>
   <si>
     <t>中和D2</t>
+  </si>
+  <si>
+    <t>中和D1</t>
+  </si>
+  <si>
+    <t>跟新通大道F1+评估</t>
+  </si>
+  <si>
+    <t>中和F2</t>
+  </si>
+  <si>
+    <t>备</t>
+  </si>
+  <si>
+    <t>休假备注</t>
+  </si>
+  <si>
+    <t>9月排班工时</t>
+  </si>
+  <si>
+    <t>7月考勤工时</t>
+  </si>
+  <si>
+    <t>8月排班工时</t>
+  </si>
+  <si>
+    <t>季度工时</t>
   </si>
 </sst>
 </file>
@@ -90,7 +117,14 @@
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -561,137 +595,137 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -706,6 +740,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1052,10 +1093,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.75" outlineLevelCol="3"/>
@@ -1447,6 +1488,236 @@
         <v>7</v>
       </c>
     </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="6">
+        <v>45170</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="6">
+        <v>45171</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="6">
+        <v>45172</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="7">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="6">
+        <v>45173</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="6">
+        <v>45174</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="6">
+        <v>45175</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="7">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="6">
+        <v>45176</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="7">
+        <v>11.83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="6">
+        <v>45177</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="6">
+        <v>45178</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="6">
+        <v>45179</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="6">
+        <v>45180</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="6">
+        <v>45181</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="6">
+        <v>45182</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="7">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="6">
+        <v>45183</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="7">
+        <v>11.83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="6">
+        <v>45184</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="7">
+        <v>144.01</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="7">
+        <v>130.83</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" s="7">
+        <v>156.59</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" s="7">
+        <v>431.43</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/work.xlsx
+++ b/work.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15735" windowHeight="6840"/>
+    <workbookView windowWidth="19635" windowHeight="6840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="29">
   <si>
     <t>日期</t>
   </si>
@@ -91,19 +91,16 @@
     <t>备</t>
   </si>
   <si>
-    <t>休假备注</t>
-  </si>
-  <si>
-    <t>9月排班工时</t>
-  </si>
-  <si>
-    <t>7月考勤工时</t>
-  </si>
-  <si>
-    <t>8月排班工时</t>
-  </si>
-  <si>
-    <t>季度工时</t>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>第四季度预调休</t>
+  </si>
+  <si>
+    <t>中和D5</t>
   </si>
 </sst>
 </file>
@@ -117,14 +114,7 @@
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -595,137 +585,137 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -740,13 +730,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1093,10 +1076,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.75" outlineLevelCol="3"/>
@@ -1489,234 +1472,488 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="6">
+      <c r="A33" s="3">
         <v>45170</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="6">
+      <c r="A34" s="3">
         <v>45171</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="6">
+      <c r="A35" s="3">
         <v>45172</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="4">
         <v>8.17</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="6">
+      <c r="A36" s="3">
         <v>45173</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="4">
         <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="6">
+      <c r="A37" s="3">
         <v>45174</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
+      <c r="B37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="6">
+      <c r="A38" s="3">
         <v>45175</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="4">
         <v>8.17</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="6">
+      <c r="A39" s="3">
         <v>45176</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="4">
         <v>11.83</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="6">
+      <c r="A40" s="3">
         <v>45177</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="6">
+      <c r="A41" s="3">
         <v>45178</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D41" s="7"/>
+      <c r="D41" s="4"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="6">
+      <c r="A42" s="3">
         <v>45179</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="7"/>
+      <c r="D42" s="4"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="6">
+      <c r="A43" s="3">
         <v>45180</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="4">
         <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="6">
+      <c r="A44" s="3">
         <v>45181</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
+      <c r="B44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="6">
+      <c r="A45" s="3">
         <v>45182</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="4">
         <v>8.17</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="6">
+      <c r="A46" s="3">
         <v>45183</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="4">
         <v>11.83</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="6">
+      <c r="A47" s="3">
         <v>45184</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="7" t="s">
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2">
+        <v>45184</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="2">
+        <v>45185</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="7" t="s">
+      <c r="D49" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="2">
+        <v>45186</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="2">
+        <v>45187</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="2">
+        <v>45188</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="2">
+        <v>45189</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B49" s="7">
-        <v>144.01</v>
-      </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="7" t="s">
+      <c r="D53" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="2">
+        <v>45190</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="2">
+        <v>45191</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="2">
+        <v>45192</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="2">
+        <v>45193</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="1">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="2">
+        <v>45194</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="2">
+        <v>45195</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="2">
+        <v>45196</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="1">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="2">
+        <v>45197</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="1">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="2">
+        <v>45198</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="2">
+        <v>45199</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2">
+        <v>45201</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B50" s="7">
-        <v>130.83</v>
-      </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="7" t="s">
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="2">
+        <v>45202</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="2">
+        <v>45203</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="2">
+        <v>45204</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="2">
+        <v>45205</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="2">
+        <v>45206</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B51" s="7">
-        <v>156.59</v>
-      </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B52" s="7">
-        <v>431.43</v>
-      </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
+      <c r="D70" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="2">
+        <v>45207</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4">
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+    </row>
+    <row r="73" spans="2:4">
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+    </row>
+    <row r="74" spans="2:4">
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+    </row>
+    <row r="75" spans="2:4">
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+    </row>
+    <row r="76" spans="2:4">
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+    </row>
+    <row r="77" spans="2:4">
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+    </row>
+    <row r="78" spans="2:4">
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/work.xlsx
+++ b/work.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="6840"/>
+    <workbookView windowWidth="20480" windowHeight="6840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="31">
   <si>
     <t>日期</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>中和D5</t>
+  </si>
+  <si>
+    <t>P8（上）</t>
+  </si>
+  <si>
+    <t>G张家寺</t>
   </si>
 </sst>
 </file>
@@ -1076,10 +1082,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.75" outlineLevelCol="3"/>
@@ -1920,40 +1926,199 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="2:4">
-      <c r="B72"/>
-      <c r="C72"/>
-      <c r="D72"/>
-    </row>
-    <row r="73" spans="2:4">
-      <c r="B73"/>
-      <c r="C73"/>
-      <c r="D73"/>
-    </row>
-    <row r="74" spans="2:4">
-      <c r="B74"/>
-      <c r="C74"/>
-      <c r="D74"/>
-    </row>
-    <row r="75" spans="2:4">
-      <c r="B75"/>
-      <c r="C75"/>
-      <c r="D75"/>
-    </row>
-    <row r="76" spans="2:4">
-      <c r="B76"/>
-      <c r="C76"/>
-      <c r="D76"/>
-    </row>
-    <row r="77" spans="2:4">
-      <c r="B77"/>
-      <c r="C77"/>
-      <c r="D77"/>
-    </row>
-    <row r="78" spans="2:4">
-      <c r="B78"/>
-      <c r="C78"/>
-      <c r="D78"/>
+    <row r="72" spans="1:4">
+      <c r="A72" s="2">
+        <v>45215</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="1">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2">
+        <v>45216</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="2">
+        <v>45217</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D74" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="2">
+        <v>45218</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D75" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="2">
+        <v>45219</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="2">
+        <v>45220</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="2">
+        <v>45221</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="1">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="2">
+        <v>45222</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2">
+        <v>45223</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="2">
+        <v>45224</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" s="1">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="2">
+        <v>45225</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D82" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="2">
+        <v>45226</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="2">
+        <v>45227</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" s="1">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="2">
+        <v>45228</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" s="1">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="2">
+        <v>45229</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="2">
+        <v>45230</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D87" s="1">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/work.xlsx
+++ b/work.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="32">
   <si>
     <t>日期</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>G张家寺</t>
+  </si>
+  <si>
+    <t>中和F2+P4（下）</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -736,6 +739,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1082,10 +1086,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.75" outlineLevelCol="3"/>
@@ -2120,6 +2124,177 @@
         <v>8</v>
       </c>
     </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="6">
+        <v>45231</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="6">
+        <v>45232</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D89" s="1">
+        <v>11.83</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="6">
+        <v>45233</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="6">
+        <v>45234</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="6">
+        <v>45235</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="6">
+        <v>45236</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D93" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="6">
+        <v>45237</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="6">
+        <v>45238</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="6">
+        <v>45239</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D96" s="1">
+        <v>14.83</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="6">
+        <v>45240</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="6">
+        <v>45241</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="6">
+        <v>45242</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99" s="1">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="6">
+        <v>45243</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D100" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="6">
+        <v>45244</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="6">
+        <v>45245</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D102" s="1">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/work.xlsx
+++ b/work.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="32">
   <si>
     <t>日期</t>
   </si>
@@ -724,11 +724,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -739,7 +742,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1086,1213 +1091,1387 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="G92" sqref="G92"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A88" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.75" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="10" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.3636363636364" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="2" customWidth="1"/>
+    <col min="3" max="3" width="32.3636363636364" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>45123</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>8.17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>45124</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>45125</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>45126</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>45127</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>45128</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>45129</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>45130</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>45131</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>45132</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>45133</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>45134</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>45135</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>45136</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>45137</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="5">
         <v>10.5</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>45138</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>45139</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>45140</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="3">
+      <c r="A20" s="4">
         <v>45141</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="B20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="6">
         <v>11.75</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="3">
+      <c r="A21" s="4">
         <v>45142</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="3">
+      <c r="A22" s="4">
         <v>45143</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <v>8.5</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="3">
+      <c r="A23" s="4">
         <v>45144</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="3">
+      <c r="A24" s="4">
         <v>45145</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="3">
+      <c r="A25" s="4">
         <v>45146</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="3">
+      <c r="A26" s="4">
         <v>45147</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="3">
+      <c r="A27" s="4">
         <v>45148</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="3">
+      <c r="A28" s="4">
         <v>45149</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="3">
+      <c r="A29" s="4">
         <v>45150</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="3">
+      <c r="A30" s="4">
         <v>45151</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="3">
+      <c r="A31" s="4">
         <v>45152</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="3">
+      <c r="A32" s="4">
         <v>45153</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="B32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="3">
+      <c r="A33" s="4">
         <v>45170</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="3">
+      <c r="A34" s="4">
         <v>45171</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="3">
+      <c r="A35" s="4">
         <v>45172</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="5">
         <v>8.17</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="3">
+      <c r="A36" s="4">
         <v>45173</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="5">
         <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="3">
+      <c r="A37" s="4">
         <v>45174</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
+      <c r="B37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="3">
+      <c r="A38" s="4">
         <v>45175</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="5">
         <v>8.17</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="3">
+      <c r="A39" s="4">
         <v>45176</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="4" t="s">
+      <c r="B39" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="5">
         <v>11.83</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="3">
+      <c r="A40" s="4">
         <v>45177</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="3">
+      <c r="A41" s="4">
         <v>45178</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D41" s="4"/>
+      <c r="D41" s="5"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="3">
+      <c r="A42" s="4">
         <v>45179</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="4"/>
+      <c r="D42" s="5"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="3">
+      <c r="A43" s="4">
         <v>45180</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="5">
         <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="3">
+      <c r="A44" s="4">
         <v>45181</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
+      <c r="B44" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="3">
+      <c r="A45" s="4">
         <v>45182</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="5">
         <v>8.17</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="3">
+      <c r="A46" s="4">
         <v>45183</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" s="4" t="s">
+      <c r="B46" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="5">
         <v>11.83</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="3">
+      <c r="A47" s="4">
         <v>45184</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="2">
+      <c r="A48" s="3">
         <v>45184</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="2">
+      <c r="A49" s="3">
         <v>45185</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="2">
+      <c r="A50" s="3">
         <v>45186</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="2">
+      <c r="A51" s="3">
         <v>45187</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="2">
+      <c r="A52" s="3">
         <v>45188</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="2">
+      <c r="A53" s="3">
         <v>45189</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="2">
+      <c r="A54" s="3">
         <v>45190</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" s="1" t="s">
+      <c r="B54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="2">
+      <c r="A55" s="3">
         <v>45191</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="2">
+      <c r="A56" s="3">
         <v>45192</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="2">
+      <c r="A57" s="3">
         <v>45193</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D57" s="1">
+      <c r="D57" s="2">
         <v>8.17</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="2">
+      <c r="A58" s="3">
         <v>45194</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="1">
+      <c r="D58" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="2">
+      <c r="A59" s="3">
         <v>45195</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="2">
+      <c r="A60" s="3">
         <v>45196</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D60" s="2">
         <v>8.17</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="2">
+      <c r="A61" s="3">
         <v>45197</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C61" s="1" t="s">
+      <c r="B61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="1">
+      <c r="D61" s="2">
         <v>7.5</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="2">
+      <c r="A62" s="3">
         <v>45198</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="2">
+      <c r="A63" s="3">
         <v>45199</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="2">
+      <c r="A64" s="3">
         <v>45200</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="2">
+      <c r="A65" s="3">
         <v>45201</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="2">
+      <c r="A66" s="3">
         <v>45202</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="2">
+      <c r="A67" s="3">
         <v>45203</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="2">
+      <c r="A68" s="3">
         <v>45204</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C68" s="1" t="s">
+      <c r="B68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="2">
+      <c r="A69" s="3">
         <v>45205</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="2">
+      <c r="A70" s="3">
         <v>45206</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="2">
+      <c r="A71" s="3">
         <v>45207</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="2">
+      <c r="A72" s="3">
         <v>45215</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72" s="2">
         <v>8.17</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="2">
+      <c r="A73" s="3">
         <v>45216</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="1" t="s">
+      <c r="B73" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="2">
+      <c r="A74" s="3">
         <v>45217</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="2">
+      <c r="A75" s="3">
         <v>45218</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C75" s="1" t="s">
+      <c r="B75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="2">
+      <c r="A76" s="3">
         <v>45219</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="2">
+      <c r="A77" s="3">
         <v>45220</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="2">
+      <c r="A78" s="3">
         <v>45221</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78" s="2">
         <v>8.17</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="2">
+      <c r="A79" s="3">
         <v>45222</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="2">
+      <c r="A80" s="3">
         <v>45223</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" s="1" t="s">
+      <c r="B80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="2">
+      <c r="A81" s="3">
         <v>45224</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D81" s="1">
+      <c r="D81" s="2">
         <v>8.17</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="2">
+      <c r="A82" s="3">
         <v>45225</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C82" s="1" t="s">
+      <c r="B82" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D82" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="2">
+      <c r="A83" s="3">
         <v>45226</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="2">
+      <c r="A84" s="3">
         <v>45227</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D84" s="2">
         <v>8.17</v>
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="2">
+      <c r="A85" s="3">
         <v>45228</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D85" s="2">
         <v>8.17</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="2">
+      <c r="A86" s="3">
         <v>45229</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="2">
+      <c r="A87" s="3">
         <v>45230</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" s="1" t="s">
+      <c r="B87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="1">
+      <c r="D87" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="6">
+      <c r="A88" s="7">
         <v>45231</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="6">
+      <c r="A89" s="7">
         <v>45232</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C89" s="1" t="s">
+      <c r="B89" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D89" s="1">
+      <c r="D89" s="2">
         <v>11.83</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="6">
+      <c r="A90" s="7">
         <v>45233</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="6">
+      <c r="A91" s="7">
         <v>45234</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="6">
+      <c r="A92" s="7">
         <v>45235</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D92" s="1">
+      <c r="D92" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="6">
+      <c r="A93" s="7">
         <v>45236</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D93" s="1">
+      <c r="D93" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="6">
+      <c r="A94" s="7">
         <v>45237</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="6">
+      <c r="A95" s="7">
         <v>45238</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="6">
+      <c r="A96" s="7">
         <v>45239</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C96" s="1" t="s">
+      <c r="B96" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D96" s="1">
+      <c r="D96" s="2">
         <v>14.83</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="6">
+      <c r="A97" s="7">
         <v>45240</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="6">
+      <c r="A98" s="7">
         <v>45241</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="6">
+      <c r="A99" s="7">
         <v>45242</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D99" s="1">
+      <c r="D99" s="2">
         <v>8.17</v>
       </c>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="6">
+      <c r="A100" s="7">
         <v>45243</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D100" s="1">
+      <c r="D100" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="6">
+      <c r="A101" s="7">
         <v>45244</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="6">
+      <c r="A102" s="7">
         <v>45245</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D102" s="1">
-        <v>8</v>
+      <c r="D102" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="7">
+        <v>45246</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D103" s="2">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="7">
+        <v>45247</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="7">
+        <v>45248</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="7">
+        <v>45249</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="7">
+        <v>45250</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D107" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="7">
+        <v>45251</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="7">
+        <v>45252</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D109" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="7">
+        <v>45253</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D110" s="2">
+        <v>11.83</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="7">
+        <v>45254</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="7">
+        <v>45255</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="7">
+        <v>45256</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D113" s="2">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="7">
+        <v>45257</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D114" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="7">
+        <v>45258</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="7">
+        <v>45259</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="7">
+        <v>45260</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D117" s="2">
+        <v>11.83</v>
       </c>
     </row>
   </sheetData>

--- a/work.xlsx
+++ b/work.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20480" windowHeight="6840"/>
+    <workbookView windowWidth="13635" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="35">
   <si>
     <t>日期</t>
   </si>
@@ -110,6 +110,15 @@
   </si>
   <si>
     <t>中和F2+P4（下）</t>
+  </si>
+  <si>
+    <t>G陆肖</t>
+  </si>
+  <si>
+    <t>跟张家寺C1</t>
+  </si>
+  <si>
+    <t>跟观东C1</t>
   </si>
 </sst>
 </file>
@@ -117,13 +126,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -579,148 +595,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -729,9 +745,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -742,7 +755,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1091,1387 +1107,1573 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D117"/>
+  <dimension ref="A1:D132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A88" sqref="A$1:A$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="H124" sqref="H124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="14" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="2" customWidth="1"/>
-    <col min="3" max="3" width="32.3636363636364" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.3666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>45123</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>8.17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>45124</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>45125</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>45126</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>45127</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>45128</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>45129</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>45130</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>45131</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>45132</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="B11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>45133</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>45134</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>45135</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>45136</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>45137</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>10.5</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>45138</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>45139</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="B18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>45140</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>45141</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="B20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <v>11.75</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>45142</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>45143</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>8.5</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>45144</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>45145</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>45146</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>45147</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>45148</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>45149</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>45150</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>45151</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>45152</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>45153</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="B32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>45170</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>45171</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>45172</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="4">
         <v>8.17</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>45173</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="4">
         <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <v>45174</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
+      <c r="B37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="4">
+      <c r="A38" s="3">
         <v>45175</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="4">
         <v>8.17</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <v>45176</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="5" t="s">
+      <c r="B39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="4">
         <v>11.83</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="4">
+      <c r="A40" s="3">
         <v>45177</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="4">
+      <c r="A41" s="3">
         <v>45178</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D41" s="5"/>
+      <c r="D41" s="4"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="4">
+      <c r="A42" s="3">
         <v>45179</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="5"/>
+      <c r="D42" s="4"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="4">
+      <c r="A43" s="3">
         <v>45180</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="4">
         <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="4">
+      <c r="A44" s="3">
         <v>45181</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
+      <c r="B44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="4">
+      <c r="A45" s="3">
         <v>45182</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="4">
         <v>8.17</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="4">
+      <c r="A46" s="3">
         <v>45183</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46" s="5" t="s">
+      <c r="B46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="4">
         <v>11.83</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="4">
+      <c r="A47" s="3">
         <v>45184</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="3">
+      <c r="A48" s="2">
         <v>45184</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="3">
+      <c r="A49" s="2">
         <v>45185</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="3">
+      <c r="A50" s="2">
         <v>45186</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="3">
+      <c r="A51" s="2">
         <v>45187</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="3">
+      <c r="A52" s="2">
         <v>45188</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="3">
+      <c r="A53" s="2">
         <v>45189</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="3">
+      <c r="A54" s="2">
         <v>45190</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C54" s="2" t="s">
+      <c r="B54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="3">
+      <c r="A55" s="2">
         <v>45191</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="3">
+      <c r="A56" s="2">
         <v>45192</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="3">
+      <c r="A57" s="2">
         <v>45193</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="1">
         <v>8.17</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="3">
+      <c r="A58" s="2">
         <v>45194</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="3">
+      <c r="A59" s="2">
         <v>45195</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="3">
+      <c r="A60" s="2">
         <v>45196</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="1">
         <v>8.17</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="3">
+      <c r="A61" s="2">
         <v>45197</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C61" s="2" t="s">
+      <c r="B61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D61" s="1">
         <v>7.5</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="3">
+      <c r="A62" s="2">
         <v>45198</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="3">
+      <c r="A63" s="2">
         <v>45199</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="3">
+      <c r="A64" s="2">
         <v>45200</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="3">
+      <c r="A65" s="2">
         <v>45201</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="3">
+      <c r="A66" s="2">
         <v>45202</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="3">
+      <c r="A67" s="2">
         <v>45203</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D67" s="2">
+      <c r="D67" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="3">
+      <c r="A68" s="2">
         <v>45204</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C68" s="2" t="s">
+      <c r="B68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="3">
+      <c r="A69" s="2">
         <v>45205</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="3">
+      <c r="A70" s="2">
         <v>45206</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="3">
+      <c r="A71" s="2">
         <v>45207</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="3">
+      <c r="A72" s="2">
         <v>45215</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="1">
         <v>8.17</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="3">
+      <c r="A73" s="2">
         <v>45216</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="2" t="s">
+      <c r="B73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="3">
+      <c r="A74" s="2">
         <v>45217</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D74" s="2">
+      <c r="D74" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="3">
+      <c r="A75" s="2">
         <v>45218</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C75" s="2" t="s">
+      <c r="B75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="3">
+      <c r="A76" s="2">
         <v>45219</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="3">
+      <c r="A77" s="2">
         <v>45220</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="3">
+      <c r="A78" s="2">
         <v>45221</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D78" s="1">
         <v>8.17</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="3">
+      <c r="A79" s="2">
         <v>45222</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="3">
+      <c r="A80" s="2">
         <v>45223</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" s="2" t="s">
+      <c r="B80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="3">
+      <c r="A81" s="2">
         <v>45224</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81" s="1">
         <v>8.17</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="3">
+      <c r="A82" s="2">
         <v>45225</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C82" s="2" t="s">
+      <c r="B82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D82" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="3">
+      <c r="A83" s="2">
         <v>45226</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="3">
+      <c r="A84" s="2">
         <v>45227</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D84" s="1">
         <v>8.17</v>
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="3">
+      <c r="A85" s="2">
         <v>45228</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85" s="1">
         <v>8.17</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="3">
+      <c r="A86" s="2">
         <v>45229</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="3">
+      <c r="A87" s="2">
         <v>45230</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" s="2" t="s">
+      <c r="B87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D87" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="7">
+      <c r="A88" s="6">
         <v>45231</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="7">
+      <c r="A89" s="6">
         <v>45232</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C89" s="2" t="s">
+      <c r="B89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D89" s="1">
         <v>11.83</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="7">
+      <c r="A90" s="6">
         <v>45233</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="7">
+      <c r="A91" s="6">
         <v>45234</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="7">
+      <c r="A92" s="6">
         <v>45235</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D92" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="7">
+      <c r="A93" s="6">
         <v>45236</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D93" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="7">
+      <c r="A94" s="6">
         <v>45237</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="7">
+      <c r="A95" s="6">
         <v>45238</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="7">
+      <c r="A96" s="6">
         <v>45239</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C96" s="2" t="s">
+      <c r="B96" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D96" s="2">
+      <c r="D96" s="1">
         <v>14.83</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="7">
+      <c r="A97" s="6">
         <v>45240</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="7">
+      <c r="A98" s="6">
         <v>45241</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="7">
+      <c r="A99" s="6">
         <v>45242</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D99" s="2">
+      <c r="D99" s="1">
         <v>8.17</v>
       </c>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="7">
+      <c r="A100" s="6">
         <v>45243</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D100" s="2">
+      <c r="D100" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="7">
+      <c r="A101" s="6">
         <v>45244</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="7">
+      <c r="A102" s="6">
         <v>45245</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D102" s="2">
+      <c r="D102" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="7">
+      <c r="A103" s="6">
         <v>45246</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C103" s="2" t="s">
+      <c r="B103" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D103" s="2">
+      <c r="D103" s="1">
         <v>8.17</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="7">
+      <c r="A104" s="6">
         <v>45247</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="7">
+      <c r="A105" s="6">
         <v>45248</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="7">
+      <c r="A106" s="6">
         <v>45249</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="7">
+      <c r="A107" s="6">
         <v>45250</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D107" s="2">
+      <c r="D107" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="7">
+      <c r="A108" s="6">
         <v>45251</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="7">
+      <c r="A109" s="6">
         <v>45252</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D109" s="2">
+      <c r="D109" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="7">
+      <c r="A110" s="6">
         <v>45253</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C110" s="2" t="s">
+      <c r="B110" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D110" s="2">
+      <c r="D110" s="1">
         <v>11.83</v>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="7">
+      <c r="A111" s="6">
         <v>45254</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="7">
+      <c r="A112" s="6">
         <v>45255</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="7">
+      <c r="A113" s="6">
         <v>45256</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D113" s="2">
+      <c r="D113" s="1">
         <v>8.17</v>
       </c>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="7">
+      <c r="A114" s="6">
         <v>45257</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D114" s="2">
+      <c r="D114" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="7">
+      <c r="A115" s="6">
         <v>45258</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="7">
+      <c r="A116" s="6">
         <v>45259</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C116" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="7">
+      <c r="A117" s="6">
         <v>45260</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C117" s="2" t="s">
+      <c r="B117" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D117" s="2">
+      <c r="D117" s="1">
         <v>11.83</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="6">
+        <v>45261</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="6">
+        <v>45262</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D119" s="7">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="6">
+        <v>45263</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="6">
+        <v>45264</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D121" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="6">
+        <v>45265</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="6">
+        <v>45266</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123" s="7">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="6">
+        <v>45267</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="6">
+        <v>45268</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="6">
+        <v>45269</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D126" s="7">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="6">
+        <v>45270</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="6">
+        <v>45271</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="6">
+        <v>45272</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D129" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="6">
+        <v>45273</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D130" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="6">
+        <v>45274</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" s="7"/>
+      <c r="D131" s="7"/>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="6">
+        <v>45275</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D132" s="7">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/work.xlsx
+++ b/work.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13635" windowHeight="12255"/>
+    <workbookView windowWidth="19200" windowHeight="6880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -125,21 +125,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="179" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -610,137 +604,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -748,17 +742,14 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1109,15 +1100,15 @@
   <sheetPr/>
   <dimension ref="A1:D132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="H124" sqref="H124"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="14" style="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.3666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.3636363636364" style="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1685,7 +1676,7 @@
       <c r="D47" s="4"/>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="2">
+      <c r="A48" s="6">
         <v>45184</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -1693,7 +1684,7 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="2">
+      <c r="A49" s="6">
         <v>45185</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -1707,7 +1698,7 @@
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="2">
+      <c r="A50" s="6">
         <v>45186</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -1715,7 +1706,7 @@
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="2">
+      <c r="A51" s="6">
         <v>45187</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -1729,7 +1720,7 @@
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="2">
+      <c r="A52" s="6">
         <v>45188</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -1737,7 +1728,7 @@
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="2">
+      <c r="A53" s="6">
         <v>45189</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -1751,7 +1742,7 @@
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="2">
+      <c r="A54" s="6">
         <v>45190</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -1765,7 +1756,7 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="2">
+      <c r="A55" s="6">
         <v>45191</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -1773,7 +1764,7 @@
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="2">
+      <c r="A56" s="6">
         <v>45192</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -1787,7 +1778,7 @@
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="2">
+      <c r="A57" s="6">
         <v>45193</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -1801,7 +1792,7 @@
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="2">
+      <c r="A58" s="6">
         <v>45194</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -1815,7 +1806,7 @@
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="2">
+      <c r="A59" s="6">
         <v>45195</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -1823,7 +1814,7 @@
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="2">
+      <c r="A60" s="6">
         <v>45196</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -1837,7 +1828,7 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="2">
+      <c r="A61" s="6">
         <v>45197</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -1851,7 +1842,7 @@
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="2">
+      <c r="A62" s="6">
         <v>45198</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -1859,7 +1850,7 @@
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="2">
+      <c r="A63" s="6">
         <v>45199</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -1867,7 +1858,7 @@
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="2">
+      <c r="A64" s="6">
         <v>45200</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -1875,7 +1866,7 @@
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="2">
+      <c r="A65" s="6">
         <v>45201</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -1886,7 +1877,7 @@
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="2">
+      <c r="A66" s="6">
         <v>45202</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -1894,7 +1885,7 @@
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="2">
+      <c r="A67" s="6">
         <v>45203</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -1908,7 +1899,7 @@
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="2">
+      <c r="A68" s="6">
         <v>45204</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -1922,7 +1913,7 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="2">
+      <c r="A69" s="6">
         <v>45205</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -1930,7 +1921,7 @@
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="2">
+      <c r="A70" s="6">
         <v>45206</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -1944,7 +1935,7 @@
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="2">
+      <c r="A71" s="6">
         <v>45207</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -1952,7 +1943,7 @@
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="2">
+      <c r="A72" s="6">
         <v>45215</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -1966,7 +1957,7 @@
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="2">
+      <c r="A73" s="6">
         <v>45216</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -1977,7 +1968,7 @@
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="2">
+      <c r="A74" s="6">
         <v>45217</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -1991,7 +1982,7 @@
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="2">
+      <c r="A75" s="6">
         <v>45218</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -2005,7 +1996,7 @@
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="2">
+      <c r="A76" s="6">
         <v>45219</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -2013,7 +2004,7 @@
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="2">
+      <c r="A77" s="6">
         <v>45220</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -2027,7 +2018,7 @@
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="2">
+      <c r="A78" s="6">
         <v>45221</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -2041,7 +2032,7 @@
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="2">
+      <c r="A79" s="6">
         <v>45222</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -2049,7 +2040,7 @@
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="2">
+      <c r="A80" s="6">
         <v>45223</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -2060,7 +2051,7 @@
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="2">
+      <c r="A81" s="6">
         <v>45224</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -2074,7 +2065,7 @@
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="2">
+      <c r="A82" s="6">
         <v>45225</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -2088,7 +2079,7 @@
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="2">
+      <c r="A83" s="6">
         <v>45226</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -2096,7 +2087,7 @@
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="2">
+      <c r="A84" s="6">
         <v>45227</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -2110,7 +2101,7 @@
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="2">
+      <c r="A85" s="6">
         <v>45228</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -2124,7 +2115,7 @@
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="2">
+      <c r="A86" s="6">
         <v>45229</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -2132,7 +2123,7 @@
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="2">
+      <c r="A87" s="6">
         <v>45230</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -2494,23 +2485,23 @@
       <c r="A118" s="6">
         <v>45261</v>
       </c>
-      <c r="B118" s="7" t="s">
+      <c r="B118" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="6">
         <v>45262</v>
       </c>
-      <c r="B119" s="7" t="s">
+      <c r="B119" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C119" s="7" t="s">
+      <c r="C119" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D119" s="7">
+      <c r="D119" s="4">
         <v>8.17</v>
       </c>
     </row>
@@ -2518,23 +2509,23 @@
       <c r="A120" s="6">
         <v>45263</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="B120" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C120" s="7"/>
-      <c r="D120" s="7"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="6">
         <v>45264</v>
       </c>
-      <c r="B121" s="7" t="s">
+      <c r="B121" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C121" s="7" t="s">
+      <c r="C121" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D121" s="7">
+      <c r="D121" s="4">
         <v>8</v>
       </c>
     </row>
@@ -2542,23 +2533,23 @@
       <c r="A122" s="6">
         <v>45265</v>
       </c>
-      <c r="B122" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C122" s="7"/>
-      <c r="D122" s="7"/>
+      <c r="B122" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="6">
         <v>45266</v>
       </c>
-      <c r="B123" s="7" t="s">
+      <c r="B123" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C123" s="7" t="s">
+      <c r="C123" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D123" s="7">
+      <c r="D123" s="4">
         <v>8.17</v>
       </c>
     </row>
@@ -2566,13 +2557,13 @@
       <c r="A124" s="6">
         <v>45267</v>
       </c>
-      <c r="B124" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C124" s="7" t="s">
+      <c r="B124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D124" s="7">
+      <c r="D124" s="4">
         <v>8</v>
       </c>
     </row>
@@ -2580,23 +2571,23 @@
       <c r="A125" s="6">
         <v>45268</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="B125" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C125" s="7"/>
-      <c r="D125" s="7"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="6">
         <v>45269</v>
       </c>
-      <c r="B126" s="7" t="s">
+      <c r="B126" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C126" s="7" t="s">
+      <c r="C126" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D126" s="7">
+      <c r="D126" s="4">
         <v>8.17</v>
       </c>
     </row>
@@ -2604,13 +2595,13 @@
       <c r="A127" s="6">
         <v>45270</v>
       </c>
-      <c r="B127" s="7" t="s">
+      <c r="B127" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C127" s="7" t="s">
+      <c r="C127" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D127" s="7">
+      <c r="D127" s="4">
         <v>8</v>
       </c>
     </row>
@@ -2618,23 +2609,23 @@
       <c r="A128" s="6">
         <v>45271</v>
       </c>
-      <c r="B128" s="7" t="s">
+      <c r="B128" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C128" s="7"/>
-      <c r="D128" s="7"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="6">
         <v>45272</v>
       </c>
-      <c r="B129" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C129" s="7" t="s">
+      <c r="B129" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D129" s="7">
+      <c r="D129" s="4">
         <v>8</v>
       </c>
     </row>
@@ -2642,13 +2633,13 @@
       <c r="A130" s="6">
         <v>45273</v>
       </c>
-      <c r="B130" s="7" t="s">
+      <c r="B130" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C130" s="7" t="s">
+      <c r="C130" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D130" s="7">
+      <c r="D130" s="4">
         <v>4</v>
       </c>
     </row>
@@ -2656,23 +2647,23 @@
       <c r="A131" s="6">
         <v>45274</v>
       </c>
-      <c r="B131" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C131" s="7"/>
-      <c r="D131" s="7"/>
+      <c r="B131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="6">
         <v>45275</v>
       </c>
-      <c r="B132" s="7" t="s">
+      <c r="B132" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C132" s="7" t="s">
+      <c r="C132" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D132" s="7">
+      <c r="D132" s="4">
         <v>10</v>
       </c>
     </row>

--- a/work.xlsx
+++ b/work.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6880"/>
+    <workbookView windowWidth="20480" windowHeight="6840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="37">
   <si>
     <t>日期</t>
   </si>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t>跟观东C1</t>
+  </si>
+  <si>
+    <t>G蒲草塘</t>
+  </si>
+  <si>
+    <t>G新川路</t>
   </si>
 </sst>
 </file>
@@ -133,7 +139,14 @@
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="179" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -604,137 +617,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -750,6 +763,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1098,13 +1114,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D132"/>
+  <dimension ref="A1:D151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="C153" sqref="C153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.75" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="14" style="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" customWidth="1"/>
@@ -2667,6 +2683,246 @@
         <v>10</v>
       </c>
     </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="6">
+        <v>45276</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="6">
+        <v>45277</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D134" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="6">
+        <v>45278</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D135" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="6">
+        <v>45279</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D136" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="6">
+        <v>45280</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="6">
+        <v>45281</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D138" s="7">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="6">
+        <v>45282</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="6">
+        <v>45283</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D140" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="6">
+        <v>45284</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D141" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="6">
+        <v>45285</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D142" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="6">
+        <v>45286</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="7"/>
+      <c r="D143" s="7"/>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="6">
+        <v>45287</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="6">
+        <v>45288</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D145" s="7">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="6">
+        <v>45289</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146" s="7"/>
+      <c r="D146" s="7"/>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="6">
+        <v>45290</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D147" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="6">
+        <v>45291</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D148" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="6">
+        <v>45292</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D149" s="7"/>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="6">
+        <v>45293</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D150" s="7">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="6">
+        <v>45294</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C151" s="7"/>
+      <c r="D151" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/work.xlsx
+++ b/work.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20480" windowHeight="6840"/>
+    <workbookView windowWidth="19200" windowHeight="6880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="39">
   <si>
     <t>日期</t>
   </si>
@@ -125,12 +138,18 @@
   </si>
   <si>
     <t>G新川路</t>
+  </si>
+  <si>
+    <t>G万安</t>
+  </si>
+  <si>
+    <t>第一季度预调休</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -139,14 +158,7 @@
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="179" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -617,133 +629,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -765,7 +777,7 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1114,13 +1126,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D151"/>
+  <dimension ref="A1:D167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="C153" sqref="C153"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="A152" sqref="A152:D167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="14" style="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" customWidth="1"/>
@@ -2687,23 +2699,23 @@
       <c r="A133" s="6">
         <v>45276</v>
       </c>
-      <c r="B133" s="7" t="s">
+      <c r="B133" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C133" s="7"/>
-      <c r="D133" s="7"/>
+      <c r="C133" s="4"/>
+      <c r="D133" s="4"/>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="6">
         <v>45277</v>
       </c>
-      <c r="B134" s="7" t="s">
+      <c r="B134" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C134" s="7" t="s">
+      <c r="C134" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D134" s="7">
+      <c r="D134" s="4">
         <v>8</v>
       </c>
     </row>
@@ -2711,13 +2723,13 @@
       <c r="A135" s="6">
         <v>45278</v>
       </c>
-      <c r="B135" s="7" t="s">
+      <c r="B135" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C135" s="7" t="s">
+      <c r="C135" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D135" s="7">
+      <c r="D135" s="4">
         <v>8</v>
       </c>
     </row>
@@ -2725,13 +2737,13 @@
       <c r="A136" s="6">
         <v>45279</v>
       </c>
-      <c r="B136" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C136" s="7" t="s">
+      <c r="B136" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D136" s="7">
+      <c r="D136" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2739,23 +2751,23 @@
       <c r="A137" s="6">
         <v>45280</v>
       </c>
-      <c r="B137" s="7" t="s">
+      <c r="B137" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C137" s="7"/>
-      <c r="D137" s="7"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="6">
         <v>45281</v>
       </c>
-      <c r="B138" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C138" s="7" t="s">
+      <c r="B138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D138" s="7">
+      <c r="D138" s="4">
         <v>8.17</v>
       </c>
     </row>
@@ -2763,23 +2775,23 @@
       <c r="A139" s="6">
         <v>45282</v>
       </c>
-      <c r="B139" s="7" t="s">
+      <c r="B139" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C139" s="7"/>
-      <c r="D139" s="7"/>
+      <c r="C139" s="4"/>
+      <c r="D139" s="4"/>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="6">
         <v>45283</v>
       </c>
-      <c r="B140" s="7" t="s">
+      <c r="B140" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C140" s="7" t="s">
+      <c r="C140" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D140" s="7">
+      <c r="D140" s="4">
         <v>3</v>
       </c>
     </row>
@@ -2787,13 +2799,13 @@
       <c r="A141" s="6">
         <v>45284</v>
       </c>
-      <c r="B141" s="7" t="s">
+      <c r="B141" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C141" s="7" t="s">
+      <c r="C141" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D141" s="7">
+      <c r="D141" s="4">
         <v>8</v>
       </c>
     </row>
@@ -2801,13 +2813,13 @@
       <c r="A142" s="6">
         <v>45285</v>
       </c>
-      <c r="B142" s="7" t="s">
+      <c r="B142" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C142" s="7" t="s">
+      <c r="C142" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D142" s="7">
+      <c r="D142" s="4">
         <v>8</v>
       </c>
     </row>
@@ -2815,23 +2827,23 @@
       <c r="A143" s="6">
         <v>45286</v>
       </c>
-      <c r="B143" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C143" s="7"/>
-      <c r="D143" s="7"/>
+      <c r="B143" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4"/>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="6">
         <v>45287</v>
       </c>
-      <c r="B144" s="7" t="s">
+      <c r="B144" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C144" s="7" t="s">
+      <c r="C144" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D144" s="7">
+      <c r="D144" s="4">
         <v>8</v>
       </c>
     </row>
@@ -2839,13 +2851,13 @@
       <c r="A145" s="6">
         <v>45288</v>
       </c>
-      <c r="B145" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C145" s="7" t="s">
+      <c r="B145" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D145" s="7">
+      <c r="D145" s="4">
         <v>8.17</v>
       </c>
     </row>
@@ -2853,23 +2865,23 @@
       <c r="A146" s="6">
         <v>45289</v>
       </c>
-      <c r="B146" s="7" t="s">
+      <c r="B146" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C146" s="7"/>
-      <c r="D146" s="7"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="6">
         <v>45290</v>
       </c>
-      <c r="B147" s="7" t="s">
+      <c r="B147" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C147" s="7" t="s">
+      <c r="C147" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D147" s="7">
+      <c r="D147" s="4">
         <v>8</v>
       </c>
     </row>
@@ -2877,13 +2889,13 @@
       <c r="A148" s="6">
         <v>45291</v>
       </c>
-      <c r="B148" s="7" t="s">
+      <c r="B148" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C148" s="7" t="s">
+      <c r="C148" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D148" s="7">
+      <c r="D148" s="4">
         <v>8</v>
       </c>
     </row>
@@ -2891,25 +2903,25 @@
       <c r="A149" s="6">
         <v>45292</v>
       </c>
-      <c r="B149" s="7" t="s">
+      <c r="B149" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C149" s="7" t="s">
+      <c r="C149" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D149" s="7"/>
+      <c r="D149" s="4"/>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="6">
         <v>45293</v>
       </c>
-      <c r="B150" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C150" s="7" t="s">
+      <c r="B150" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D150" s="7">
+      <c r="D150" s="4">
         <v>8.17</v>
       </c>
     </row>
@@ -2917,11 +2929,196 @@
       <c r="A151" s="6">
         <v>45294</v>
       </c>
-      <c r="B151" s="7" t="s">
+      <c r="B151" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C151" s="7"/>
-      <c r="D151" s="7"/>
+      <c r="C151" s="4"/>
+      <c r="D151" s="4"/>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="7">
+        <v>45307</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D152" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="7">
+        <v>45308</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="7">
+        <v>45309</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D154" s="1">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="7">
+        <v>45310</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D155" s="1">
+        <v>11.83</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="7">
+        <v>45311</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="7">
+        <v>45312</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="7">
+        <v>45313</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D158" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="7">
+        <v>45314</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D159" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="7">
+        <v>45315</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="7">
+        <v>45316</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="7">
+        <v>45317</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D162" s="1">
+        <v>11.83</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="7">
+        <v>45318</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="7">
+        <v>45319</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="7">
+        <v>45320</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="7">
+        <v>45321</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D166" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="7">
+        <v>45322</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
